--- a/docs/PTA2_DDC_60/PTA1_R6_BDDC_14.08.2024_output.xlsx
+++ b/docs/PTA2_DDC_60/PTA1_R6_BDDC_14.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,2659 +505,3170 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731412526.2805276</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731412527.084325</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731412526.2805276.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731412527.084325.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>283.04</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>283.43</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.3899999999999864</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731412527.3263073</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731412527.8035274</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731412527.3263073.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731412527.8035274.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>283.69</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>283.17</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.5199999999999818</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731412529.7820709</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>./test_images/SBERP1731412529.7820709.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
+          <t>./test_images/SBERP1731412529.7820709.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>283.04</v>
       </c>
-      <c r="J5" t="n">
-        <v>283.04</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
+      <c r="L5" t="n">
+        <v>282.27</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.7700000000000387</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731412532.2897198</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731412532.7814064</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731412532.2897198.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731412532.7814064.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>283.04</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>283.43</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.3899999999999864</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731412532.937986</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731412533.3379161</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731412532.937986.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731412533.3379161.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>283.69</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>283.17</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.5199999999999818</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731412535.0882344</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731412537.0382597</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731412535.0882344.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731412537.0382597.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>283.04</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>284.24</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>1.199999999999989</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731412537.9627824</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731412538.690928</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731412537.9627824.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731412538.690928.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>283.68</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>283.96</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.2799999999999727</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731412539.1464224</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731412539.5390267</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731412539.1464224.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731412539.5390267.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>284.38</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>283.87</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.5099999999999909</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731412541.4352496</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731412541.4352496.png</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731412541.4352496.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>283.84</v>
       </c>
-      <c r="J11" t="n">
-        <v>283.84</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
+      <c r="L11" t="n">
+        <v>282.91</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.92999999999995</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.33</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731412544.7442904</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731412545.3484428</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731412544.7442904.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731412545.3484428.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>130.85</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>131.18</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.3300000000000125</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731412546.4812334</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731412548.4120266</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731412546.4812334.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731412548.4120266.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>131.18</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>131.09</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.09000000000000341</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731412548.4529226</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731412548.4529226.png</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731412548.4529226.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>130.97</v>
       </c>
-      <c r="J14" t="n">
-        <v>130.97</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
+      <c r="L14" t="n">
+        <v>130.8</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-0.1699999999999875</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731412551.1780534</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731412551.5808325</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731412551.1780534.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731412551.5808325.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>6462.5</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>6469.5</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>7</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731412551.8089364</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731412552.54538</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731412551.8089364.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731412552.54538.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>6492</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>6494</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731412554.6078775</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731412554.6078775.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731412554.6078775.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>6491</v>
       </c>
-      <c r="J17" t="n">
-        <v>6491</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
+      <c r="L17" t="n">
+        <v>6461</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-30</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731412556.7674685</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731412557.993487</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731412556.7674685.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731412557.993487.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>502.55</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>503</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.4499999999999886</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731412558.1118727</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731412559.6494892</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731412558.1118727.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731412559.6494892.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>503.8</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>502.55</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>1.25</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731412560.6808374</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731412561.0931504</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731412560.6808374.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731412561.0931504.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>504.75</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>503.8</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.9499999999999886</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731412561.5892553</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731412561.5892553.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731412561.5892553.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>502.55</v>
       </c>
-      <c r="J21" t="n">
-        <v>502.55</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
+      <c r="L21" t="n">
+        <v>501.5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-1.050000000000011</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731412564.1723986</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731412566.6231232</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731412564.1723986.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731412566.6231232.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>225.8</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>225.6</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-0.2000000000000171</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731412567.4434626</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731412567.4434626.png</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731412567.4434626.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>225.29</v>
       </c>
-      <c r="J23" t="n">
-        <v>225.29</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
+      <c r="L23" t="n">
+        <v>224.3</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-0.9899999999999807</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.44</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731412570.9442394</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731412571.326026</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731412570.9442394.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731412571.326026.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>1058.2</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>1061.4</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>3.200000000000045</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731412571.667502</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731412573.4452658</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731412571.667502.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731412573.4452658.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1063</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>1064</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-1</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731412573.773949</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731412575.7799525</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731412573.773949.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731412575.7799525.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1061.4</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>1060.2</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-1.200000000000045</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731412579.078666</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731412579.7436557</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/CNY1731412579.078666.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/CNY1731412579.7436557.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>12.209</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>12.195</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.01399999999999935</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731412580.301671</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731412580.301671.png</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731412580.301671.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>12.189</v>
       </c>
-      <c r="J28" t="n">
-        <v>12.189</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
+      <c r="L28" t="n">
+        <v>12.088</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-0.1010000000000009</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.83</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731412583.006073</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731412584.4442801</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731412583.006073.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731412584.4442801.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>127.08</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>127.16</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.07999999999999829</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731412584.8750014</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731412585.37597</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731412584.8750014.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731412585.37597.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>127.52</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>127.2</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.3199999999999932</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731412587.3569667</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731412587.3569667.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731412587.3569667.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>127.1</v>
       </c>
-      <c r="J31" t="n">
-        <v>127.1</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
+      <c r="L31" t="n">
+        <v>126.16</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.9399999999999977</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.74</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731412590.9694145</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731412591.524086</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731412590.9694145.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731412591.524086.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>164.8</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>165.1</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.2999999999999829</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731412592.606898</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731412594.0610688</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731412592.606898.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731412594.0610688.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>165.36</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>165.06</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.3000000000000114</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731412594.228001</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731412594.228001.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731412594.228001.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>164.82</v>
       </c>
-      <c r="J34" t="n">
-        <v>164.82</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
+      <c r="L34" t="n">
+        <v>164.16</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.6599999999999966</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731412598.1673658</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731412598.8138437</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731412598.1673658.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731412598.8138437.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>50.42</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>50.495</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.07499999999999574</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731412600.3868678</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731412600.3868678.png</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731412600.3868678.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>50.475</v>
       </c>
-      <c r="J36" t="n">
-        <v>50.475</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
+      <c r="L36" t="n">
+        <v>50.14</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-0.3350000000000009</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.66</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731412603.3044982</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731412603.8358405</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731412603.3044982.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731412603.8358405.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>1407</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>1408.6</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>1.599999999999909</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731412604.0774965</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731412606.3155267</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731412604.0774965.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731412606.3155267.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>1410</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>1408.2</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>1.799999999999955</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731412607.0977504</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731412607.0977504.png</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731412607.0977504.png</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>1406.2</v>
       </c>
-      <c r="J39" t="n">
-        <v>1406.2</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
+      <c r="L39" t="n">
+        <v>1401</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-5.200000000000045</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.37</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731412609.915772</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731412611.0983994</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731412609.915772.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731412611.0983994.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>59.67</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>59.75</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.07999999999999829</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731412612.4727669</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731412613.0027578</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731412612.4727669.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731412613.0027578.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>59.69</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>59.75</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731412613.9194913</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731412615.344612</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731412613.9194913.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731412615.344612.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>59.64</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>59.6</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.03999999999999915</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731412616.8984268</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731412617.4133823</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731412616.8984268.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731412617.4133823.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>101.05</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>101.35</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.2999999999999972</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731412617.8455007</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731412620.064371</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731412617.8455007.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731412620.064371.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>101.65</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>101.7</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-0.04999999999999716</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731412620.9703755</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731412620.9703755.png</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731412620.9703755.png</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>101.42</v>
       </c>
-      <c r="J45" t="n">
-        <v>101.42</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
+      <c r="L45" t="n">
+        <v>101.06</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-0.3599999999999994</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.35</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731412624.7737515</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731412626.5964656</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/SELG1731412624.7737515.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/SELG1731412626.5964656.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>57.2</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>57.12</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.0800000000000054</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731412626.6369874</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731412626.6369874.png</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731412626.6369874.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>57.05</v>
       </c>
-      <c r="J47" t="n">
-        <v>57.05</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
+      <c r="L47" t="n">
+        <v>56.71</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-0.3399999999999963</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.6</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731412629.1470058</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731412629.596874</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731412629.1470058.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731412629.596874.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>158.1</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>158.32</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731412631.789241</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731412632.2159421</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731412631.789241.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731412632.2159421.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>157.6</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>157.92</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.3199999999999932</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731412633.04923</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731412633.04923.png</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731412633.04923.png</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>156.92</v>
       </c>
-      <c r="J50" t="n">
-        <v>156.92</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
+      <c r="L50" t="n">
+        <v>156.98</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731412640.9987938</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731412641.777206</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731412640.9987938.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731412641.777206.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>20.855</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>20.915</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.05999999999999872</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731412644.9258857</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731412646.0069702</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731412644.9258857.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731412646.0069702.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>20.801</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>20.78</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-0.02099999999999724</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731412647.6289356</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731412647.946242</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731412647.6289356.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731412647.946242.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>690.45</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>693.15</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>2.699999999999932</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731412649.928979</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731412650.7988932</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731412649.928979.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731412650.7988932.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>694.15</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>693.05</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>1.100000000000023</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731412650.928261</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731412650.928261.png</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731412650.928261.png</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>691.6</v>
       </c>
-      <c r="J55" t="n">
-        <v>691.6</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
+      <c r="L55" t="n">
+        <v>690.1</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731412653.2924144</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731412653.801195</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731412653.2924144.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731412653.801195.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>158.02</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>158.89</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.8699999999999761</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.5499999999999999</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731412655.669272</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731412656.0062442</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731412655.669272.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731412656.0062442.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>159.17</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>158.71</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.4599999999999795</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731412656.5675216</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731412656.5675216.png</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731412656.5675216.png</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>158.36</v>
       </c>
-      <c r="J58" t="n">
-        <v>158.36</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
+      <c r="L58" t="n">
+        <v>156.26</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-2.100000000000023</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-1.33</v>
       </c>
     </row>
   </sheetData>
@@ -3156,7 +3682,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3185,6 +3711,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -3193,13 +3729,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.89999999999992</v>
+        <v>1.96999999999997</v>
       </c>
       <c r="C2" t="n">
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4833333333333201</v>
+        <v>0.3283333333333284</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="3">
@@ -3209,13 +3751,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.649999999999977</v>
+        <v>1.599999999999966</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6624999999999943</v>
+        <v>0.3999999999999915</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
@@ -3225,13 +3773,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5999999999999943</v>
+        <v>-0.06000000000000227</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1999999999999981</v>
+        <v>-0.02000000000000076</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.04000000000000004</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="5">
@@ -3241,13 +3795,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.399999999999864</v>
+        <v>-1.800000000000182</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>1.133333333333288</v>
+        <v>-0.6000000000000606</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="6">
@@ -3257,13 +3817,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.25</v>
+        <v>-0.1099999999999994</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08333333333333333</v>
+        <v>-0.03666666666666648</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="7">
@@ -3273,13 +3839,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4200000000000159</v>
+        <v>0.2500000000000284</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1400000000000053</v>
+        <v>0.08333333333334281</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="8">
@@ -3289,13 +3861,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3999999999999915</v>
+        <v>-0.5400000000000063</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1333333333333305</v>
+        <v>-0.1800000000000021</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.43</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="9">
@@ -3305,13 +3883,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>-25</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>1.666666666666667</v>
+        <v>-8.333333333333334</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.3799999999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="10">
@@ -3321,13 +3905,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.539999999999992</v>
+        <v>0.5999999999999943</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1799999999999974</v>
+        <v>0.1999999999999981</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="11">
@@ -3337,13 +3927,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.799999999999955</v>
+        <v>2.299999999999955</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>1.266666666666652</v>
+        <v>0.7666666666666515</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="12">
@@ -3353,13 +3949,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.329999999999956</v>
+        <v>-0.7700000000000671</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4433333333333185</v>
+        <v>-0.256666666666689</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="13">
@@ -3377,6 +3979,12 @@
       <c r="D13" t="n">
         <v>0.0333333333333338</v>
       </c>
+      <c r="E13" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3393,6 +4001,12 @@
       <c r="D14" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="E14" t="n">
+        <v>0.09999999999999999</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -3401,13 +4015,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9099999999999682</v>
+        <v>0.1399999999999295</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3033333333333227</v>
+        <v>0.04666666666664317</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.04999999999999993</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="16">
@@ -3417,13 +4037,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0800000000000054</v>
+        <v>-0.2599999999999909</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0400000000000027</v>
+        <v>-0.1299999999999955</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="17">
@@ -3441,6 +4067,12 @@
       <c r="D17" t="n">
         <v>0.01950000000000074</v>
       </c>
+      <c r="E17" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -3449,13 +4081,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.2000000000000171</v>
+        <v>-1.189999999999998</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1000000000000085</v>
+        <v>-0.5949999999999989</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.26</v>
       </c>
     </row>
     <row r="19">
@@ -3465,13 +4103,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.07499999999999574</v>
+        <v>-0.4099999999999966</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.03749999999999787</v>
+        <v>-0.2049999999999983</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="20">
@@ -3481,13 +4125,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01399999999999935</v>
+        <v>-0.08700000000000152</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>0.006999999999999673</v>
+        <v>-0.04350000000000076</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.72</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="21">
@@ -3503,6 +4153,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
